--- a/medicine/Premiers secours et secourisme/Surveillance_des_plages/Surveillance_des_plages.xlsx
+++ b/medicine/Premiers secours et secourisme/Surveillance_des_plages/Surveillance_des_plages.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La surveillance des plages, aussi connue sous l’appellation anglaise Lifeguard, est un métier exercé à temps plein ou de manière saisonnière et consistant à la surveillance, l'assistance et le sauvetage aquatique des usagers des plages ainsi que des baigneurs.
 </t>
@@ -513,10 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Belgique
-En Belgique, la surveillance des plages est effectuée par une intercommunale: l'IKWV. Le sauvetage en mer via hélicoptères est lui assuré par une unité de l'armée de l'air belge: la 40e escadrille Héli, basée à Coxyde.
- France
-En France, la surveillance des plages est à la charge de la commune. Elle est effectuée en fonction du choix des mairies par : des civils (avec ou non le soutien de CRS), le SDIS, ou la SNSM. Le sauvetage en mer est quant à lui effectué bénévolement par la SNSM, avec les moyens aériens de la Marine Nationale et de la Sécurité Civile. 
+          <t xml:space="preserve"> Belgique</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Belgique, la surveillance des plages est effectuée par une intercommunale: l'IKWV. Le sauvetage en mer via hélicoptères est lui assuré par une unité de l'armée de l'air belge: la 40e escadrille Héli, basée à Coxyde.
 </t>
         </is>
       </c>
@@ -542,13 +557,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Dans la culture populaire</t>
+          <t>Par pays</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>À la télévision
-La série télévisée américaine Alerte à Malibu relate le quotidien des sauveteurs des plages de Malibu, en Californie.</t>
+          <t xml:space="preserve"> France</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, la surveillance des plages est à la charge de la commune. Elle est effectuée en fonction du choix des mairies par : des civils (avec ou non le soutien de CRS), le SDIS, ou la SNSM. Le sauvetage en mer est quant à lui effectué bénévolement par la SNSM, avec les moyens aériens de la Marine Nationale et de la Sécurité Civile. 
+</t>
         </is>
       </c>
     </row>
@@ -573,10 +594,48 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Dans la culture populaire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>À la télévision</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La série télévisée américaine Alerte à Malibu relate le quotidien des sauveteurs des plages de Malibu, en Californie.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Surveillance_des_plages</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Surveillance_des_plages</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Images</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Canot pneumatique des sauveteurs en Australie.
